--- a/South German Credit/Performance_metrics/model_perf_metrics_mean_of_iterations__200_300__1_2_3_5.xlsx
+++ b/South German Credit/Performance_metrics/model_perf_metrics_mean_of_iterations__200_300__1_2_3_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>F1_std(%)</t>
+          <t>F1 (%)_std</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>AUC_std(%)</t>
+          <t>AUC (%)_std</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -502,16 +502,16 @@
         <v>700</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8522982236075992</v>
+        <v>0.8533662027987668</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00822399</v>
+        <v>0.00314594</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6829354855670646</v>
+        <v>0.8122535359377465</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01617613</v>
+        <v>0.00506073</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -536,13 +536,13 @@
         <v>700</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8154897494305235</v>
+        <v>0.8154897494305238</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6480098848519903</v>
+        <v>0.7745938272254063</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -554,32 +554,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LR_sample:100_cf:1_mean_of_30_iterations</t>
+          <t>LR_sample:20_cf:1_mean_of_2_iterations</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>800</v>
+        <v>720</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8174428354746653</v>
+        <v>0.8215093628251854</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00549684</v>
+        <v>0.00040845</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6672800883327198</v>
+        <v>0.7738051422261949</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01153369</v>
+        <v>0.00042063</v>
       </c>
     </row>
     <row r="5">
@@ -588,32 +588,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LR_sample:100_cf:2_mean_of_30_iterations</t>
+          <t>LR_sample:20_cf:2_mean_of_2_iterations</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>900</v>
+        <v>740</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8136482671896754</v>
+        <v>0.819745861014447</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0069955</v>
+        <v>0.00135506</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6739900450426766</v>
+        <v>0.7705452442294548</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01442394</v>
+        <v>0.00110416</v>
       </c>
     </row>
     <row r="6">
@@ -622,32 +622,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LR_sample:100_cf:3_mean_of_30_iterations</t>
+          <t>LR_sample:25_cf:1_mean_of_2_iterations</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1000</v>
+        <v>725</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8111967456317742</v>
+        <v>0.8209816831528692</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00617367</v>
+        <v>0.00093613</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6788562314878103</v>
+        <v>0.7692833482307166</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01034155</v>
+        <v>0.00078868</v>
       </c>
     </row>
     <row r="7">
@@ -656,304 +656,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LR_sample:100_cf:5_mean_of_30_iterations</t>
+          <t>LR_sample:25_cf:2_mean_of_2_iterations</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8054779628168006</v>
+        <v>0.8138826221305078</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00703206</v>
+        <v>0.00282271</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6794512505038822</v>
+        <v>0.7694673747305326</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01243077</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>LR_sample:200_cf:1_mean_of_30_iterations</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" t="n">
-        <v>200</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>900</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.8156732551260987</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.00584848</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.682294021767706</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.01090133</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>LR_sample:200_cf:2_mean_of_30_iterations</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" t="n">
-        <v>200</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.8116471206254239</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.00558567</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.6850246244983086</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.00993456</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>LR_sample:200_cf:3_mean_of_30_iterations</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" t="n">
-        <v>200</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1300</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.8106256727664447</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.00477911</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.6909835778256833</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.01082988</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>LR_sample:200_cf:5_mean_of_30_iterations</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" t="n">
-        <v>200</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1700</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.8038925668864303</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.00681712</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.692134181607866</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.01026411</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>LR_sample:300_cf:1_mean_of_30_iterations</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" t="n">
-        <v>300</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.8132769153959903</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.0058166</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.6846136319820531</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.01075909</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>LR_sample:300_cf:2_mean_of_30_iterations</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" t="n">
-        <v>300</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1300</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.8077174099490729</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.00532647</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.687134795029532</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.00961263</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>LR_sample:300_cf:3_mean_of_30_iterations</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" t="n">
-        <v>300</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.8031350514673385</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.00702699</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.6894430131272239</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.01059306</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>LR_sample:300_cf:5_mean_of_30_iterations</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>30</v>
-      </c>
-      <c r="D15" t="n">
-        <v>300</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.7970521784989144</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.008062059999999999</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.6873319662793347</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.01028586</v>
+        <v>0.00060466</v>
       </c>
     </row>
   </sheetData>

--- a/South German Credit/Performance_metrics/model_perf_metrics_mean_of_iterations__200_300__1_2_3_5.xlsx
+++ b/South German Credit/Performance_metrics/model_perf_metrics_mean_of_iterations__200_300__1_2_3_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -502,16 +502,16 @@
         <v>700</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8533662027987668</v>
+        <v>0.851703681088677</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00314594</v>
+        <v>0.01002318</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8122535359377465</v>
+        <v>0.6786371523213628</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00506073</v>
+        <v>0.022623</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -536,13 +536,13 @@
         <v>700</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8154897494305238</v>
+        <v>0.815489749430524</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7745938272254063</v>
+        <v>0.6480098848519902</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -554,32 +554,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LR_sample:20_cf:1_mean_of_2_iterations</t>
+          <t>LR_sample:200_cf:1_mean_of_15_iterations</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8215093628251854</v>
+        <v>0.814729170171607</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00040845</v>
+        <v>0.00526159</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7738051422261949</v>
+        <v>0.6786634418213366</v>
       </c>
       <c r="J4" t="n">
-        <v>0.00042063</v>
+        <v>0.00917361</v>
       </c>
     </row>
     <row r="5">
@@ -588,32 +588,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LR_sample:20_cf:2_mean_of_2_iterations</t>
+          <t>LR_sample:200_cf:2_mean_of_15_iterations</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>740</v>
+        <v>1100</v>
       </c>
       <c r="G5" t="n">
-        <v>0.819745861014447</v>
+        <v>0.8066428414463361</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00135506</v>
+        <v>0.00619937</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7705452442294548</v>
+        <v>0.6839178365494154</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00110416</v>
+        <v>0.01175392</v>
       </c>
     </row>
     <row r="6">
@@ -622,32 +622,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LR_sample:25_cf:1_mean_of_2_iterations</t>
+          <t>LR_sample:200_cf:3_mean_of_15_iterations</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>725</v>
+        <v>1300</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8209816831528692</v>
+        <v>0.8045780340514079</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00093613</v>
+        <v>0.00573174</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7692833482307166</v>
+        <v>0.6899626689100372</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00078868</v>
+        <v>0.00968521</v>
       </c>
     </row>
     <row r="7">
@@ -656,32 +656,168 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LR_sample:25_cf:2_mean_of_2_iterations</t>
+          <t>LR_sample:200_cf:5_mean_of_15_iterations</t>
         </is>
       </c>
       <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>200</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1700</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.7955889229406868</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.00936886</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.6857458331142541</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.01317955</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LR_sample:300_cf:1_mean_of_15_iterations</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>300</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.8077055129324509</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.00550886</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.6804020540862645</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.01224883</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>LR_sample:300_cf:2_mean_of_15_iterations</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>300</v>
+      </c>
+      <c r="E9" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
-        <v>25</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="n">
-        <v>750</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.8138826221305078</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.00282271</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.7694673747305326</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.00060466</v>
+      <c r="F9" t="n">
+        <v>1300</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.8027201401482505</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.00442318</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.6905007273428325</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.00942749</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>LR_sample:300_cf:3_mean_of_15_iterations</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>15</v>
+      </c>
+      <c r="D10" t="n">
+        <v>300</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.7948162765071076</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.00637404</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.6866677182466657</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.00907005</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>LR_sample:300_cf:5_mean_of_15_iterations</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>15</v>
+      </c>
+      <c r="D11" t="n">
+        <v>300</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2200</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.790706582628418</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.00523629</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.6899241109767426</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.00616071</v>
       </c>
     </row>
   </sheetData>
